--- a/2021-07 South Australia Outbreak Paths.xlsx
+++ b/2021-07 South Australia Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528DFDA-CFA8-4486-BE53-882059443DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436911B0-243A-4C65-890B-6C41D033BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="82">
   <si>
     <t>Source</t>
   </si>
@@ -172,12 +172,6 @@
     <t>Wild</t>
   </si>
   <si>
-    <t>#ffd7d5</t>
-  </si>
-  <si>
-    <t>#ffaeaa</t>
-  </si>
-  <si>
     <t>#ff7f7f</t>
   </si>
   <si>
@@ -203,6 +197,90 @@
   </si>
   <si>
     <t>A6 f20s</t>
+  </si>
+  <si>
+    <t>#fff4f3</t>
+  </si>
+  <si>
+    <t>#ffeae8</t>
+  </si>
+  <si>
+    <t>#ffdfdc</t>
+  </si>
+  <si>
+    <t>#ffd4d1</t>
+  </si>
+  <si>
+    <t>#ffc9c5</t>
+  </si>
+  <si>
+    <t>#ffbdba</t>
+  </si>
+  <si>
+    <t>#ffb2ae</t>
+  </si>
+  <si>
+    <t>#ffa6a3</t>
+  </si>
+  <si>
+    <t>#ff9997</t>
+  </si>
+  <si>
+    <t>#ff8d8b</t>
+  </si>
+  <si>
+    <t>A7 child</t>
+  </si>
+  <si>
+    <t>A8 f50s</t>
+  </si>
+  <si>
+    <t>Tenafeate Creek Winery</t>
+  </si>
+  <si>
+    <t>A9 m50s</t>
+  </si>
+  <si>
+    <t>A10 f60s</t>
+  </si>
+  <si>
+    <t>A11 m40s</t>
+  </si>
+  <si>
+    <t>A12 f80s</t>
+  </si>
+  <si>
+    <t>A13 f20s</t>
+  </si>
+  <si>
+    <t>A14 m20s</t>
+  </si>
+  <si>
+    <t>A15 m60s</t>
+  </si>
+  <si>
+    <t>A16 m60s</t>
+  </si>
+  <si>
+    <t>The Greek on Halifax Close Contact</t>
+  </si>
+  <si>
+    <t>A17 f40s</t>
+  </si>
+  <si>
+    <t>A18 m70s</t>
+  </si>
+  <si>
+    <t>A19 m80s</t>
+  </si>
+  <si>
+    <t>Tenafeate Creek Winery Close Contact</t>
+  </si>
+  <si>
+    <t>A21 m40s</t>
+  </si>
+  <si>
+    <t>A20 f80s</t>
   </si>
 </sst>
 </file>
@@ -272,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -599,16 +677,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.06640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
@@ -646,16 +724,16 @@
         <v>44396</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -669,16 +747,16 @@
         <v>44397</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -695,16 +773,16 @@
         <v>44397</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -721,19 +799,19 @@
         <v>44397</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -747,19 +825,19 @@
         <v>44397</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -773,25 +851,415 @@
         <v>44398</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +1277,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -840,7 +1308,7 @@
         <v>44396</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -854,7 +1322,7 @@
         <v>44397</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -871,7 +1339,7 @@
         <v>44398</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -887,6 +1355,9 @@
       <c r="A5" s="1">
         <v>44399</v>
       </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -901,6 +1372,9 @@
       <c r="A6" s="1">
         <v>44400</v>
       </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -915,6 +1389,9 @@
       <c r="A7" s="1">
         <v>44401</v>
       </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -929,6 +1406,9 @@
       <c r="A8" s="1">
         <v>44402</v>
       </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -943,6 +1423,9 @@
       <c r="A9" s="1">
         <v>44403</v>
       </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -957,8 +1440,8 @@
       <c r="A10" s="1">
         <v>44404</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="B10" t="s">
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -971,8 +1454,8 @@
       <c r="A11" s="1">
         <v>44405</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
+      <c r="B11" t="s">
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -985,8 +1468,11 @@
       <c r="A12" s="1">
         <v>44406</v>
       </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1000,7 +1486,7 @@
         <v>44407</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1014,7 +1500,7 @@
         <v>44408</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -1028,7 +1514,7 @@
         <v>44409</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -1042,7 +1528,7 @@
         <v>44410</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1056,7 +1542,7 @@
         <v>44411</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -1070,7 +1556,7 @@
         <v>44412</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -1084,7 +1570,7 @@
         <v>44413</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -1098,7 +1584,7 @@
         <v>44414</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -1112,7 +1598,7 @@
         <v>44415</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -1126,7 +1612,7 @@
         <v>44416</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -1139,6 +1625,9 @@
       <c r="A23" s="1">
         <v>44417</v>
       </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
       <c r="D23" t="s">
         <v>33</v>
       </c>
@@ -1151,7 +1640,7 @@
         <v>44418</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -1163,6 +1652,9 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44419</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
